--- a/natmiOut/OldD0/LR-pairs_lrc2p/Fgf2-Cd44.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Fgf2-Cd44.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.683366466943602</v>
+        <v>0.747119</v>
       </c>
       <c r="H2">
-        <v>0.683366466943602</v>
+        <v>2.241357</v>
       </c>
       <c r="I2">
-        <v>0.02858827872672789</v>
+        <v>0.03096954854571248</v>
       </c>
       <c r="J2">
-        <v>0.02858827872672789</v>
+        <v>0.03096954854571248</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>82.91192619001551</v>
+        <v>297.8183156666666</v>
       </c>
       <c r="N2">
-        <v>82.91192619001551</v>
+        <v>893.4549469999999</v>
       </c>
       <c r="O2">
-        <v>0.687726860841511</v>
+        <v>0.8852156413092672</v>
       </c>
       <c r="P2">
-        <v>0.687726860841511</v>
+        <v>0.8852156413092673</v>
       </c>
       <c r="Q2">
-        <v>56.65923006795961</v>
+        <v>222.5057221825643</v>
       </c>
       <c r="R2">
-        <v>56.65923006795961</v>
+        <v>2002.551499643079</v>
       </c>
       <c r="S2">
-        <v>0.01966092718559472</v>
+        <v>0.02741472877695136</v>
       </c>
       <c r="T2">
-        <v>0.01966092718559472</v>
+        <v>0.02741472877695136</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.683366466943602</v>
+        <v>0.747119</v>
       </c>
       <c r="H3">
-        <v>0.683366466943602</v>
+        <v>2.241357</v>
       </c>
       <c r="I3">
-        <v>0.02858827872672789</v>
+        <v>0.03096954854571248</v>
       </c>
       <c r="J3">
-        <v>0.02858827872672789</v>
+        <v>0.03096954854571248</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>23.8263093565274</v>
+        <v>24.34034433333333</v>
       </c>
       <c r="N3">
-        <v>23.8263093565274</v>
+        <v>73.021033</v>
       </c>
       <c r="O3">
-        <v>0.1976313142412142</v>
+        <v>0.07234764413494278</v>
       </c>
       <c r="P3">
-        <v>0.1976313142412142</v>
+        <v>0.0723476441349428</v>
       </c>
       <c r="Q3">
-        <v>16.28210084527542</v>
+        <v>18.18513371797567</v>
       </c>
       <c r="R3">
-        <v>16.28210084527542</v>
+        <v>163.666203461781</v>
       </c>
       <c r="S3">
-        <v>0.005649939096657378</v>
+        <v>0.002240573877205041</v>
       </c>
       <c r="T3">
-        <v>0.005649939096657378</v>
+        <v>0.002240573877205042</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.683366466943602</v>
+        <v>0.747119</v>
       </c>
       <c r="H4">
-        <v>0.683366466943602</v>
+        <v>2.241357</v>
       </c>
       <c r="I4">
-        <v>0.02858827872672789</v>
+        <v>0.03096954854571248</v>
       </c>
       <c r="J4">
-        <v>0.02858827872672789</v>
+        <v>0.03096954854571248</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.8211477070986</v>
+        <v>14.277234</v>
       </c>
       <c r="N4">
-        <v>13.8211477070986</v>
+        <v>42.831702</v>
       </c>
       <c r="O4">
-        <v>0.1146418249172748</v>
+        <v>0.04243671455578994</v>
       </c>
       <c r="P4">
-        <v>0.1146418249172748</v>
+        <v>0.04243671455578994</v>
       </c>
       <c r="Q4">
-        <v>9.444908877705636</v>
+        <v>10.666792788846</v>
       </c>
       <c r="R4">
-        <v>9.444908877705636</v>
+        <v>96.00113509961399</v>
       </c>
       <c r="S4">
-        <v>0.00327741244447579</v>
+        <v>0.00131424589155608</v>
       </c>
       <c r="T4">
-        <v>0.00327741244447579</v>
+        <v>0.00131424589155608</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.5922617627955</v>
+        <v>19.74619233333334</v>
       </c>
       <c r="H5">
-        <v>19.5922617627955</v>
+        <v>59.23857700000001</v>
       </c>
       <c r="I5">
-        <v>0.8196320236006495</v>
+        <v>0.8185184181638298</v>
       </c>
       <c r="J5">
-        <v>0.8196320236006495</v>
+        <v>0.8185184181638298</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>82.91192619001551</v>
+        <v>297.8183156666666</v>
       </c>
       <c r="N5">
-        <v>82.91192619001551</v>
+        <v>893.4549469999999</v>
       </c>
       <c r="O5">
-        <v>0.687726860841511</v>
+        <v>0.8852156413092672</v>
       </c>
       <c r="P5">
-        <v>0.687726860841511</v>
+        <v>0.8852156413092673</v>
       </c>
       <c r="Q5">
-        <v>1624.432161172364</v>
+        <v>5880.77774154338</v>
       </c>
       <c r="R5">
-        <v>1624.432161172364</v>
+        <v>52926.99967389042</v>
       </c>
       <c r="S5">
-        <v>0.5636829586360499</v>
+        <v>0.7245653064583415</v>
       </c>
       <c r="T5">
-        <v>0.5636829586360499</v>
+        <v>0.7245653064583416</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.5922617627955</v>
+        <v>19.74619233333334</v>
       </c>
       <c r="H6">
-        <v>19.5922617627955</v>
+        <v>59.23857700000001</v>
       </c>
       <c r="I6">
-        <v>0.8196320236006495</v>
+        <v>0.8185184181638298</v>
       </c>
       <c r="J6">
-        <v>0.8196320236006495</v>
+        <v>0.8185184181638298</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.8263093565274</v>
+        <v>24.34034433333333</v>
       </c>
       <c r="N6">
-        <v>23.8263093565274</v>
+        <v>73.021033</v>
       </c>
       <c r="O6">
-        <v>0.1976313142412142</v>
+        <v>0.07234764413494278</v>
       </c>
       <c r="P6">
-        <v>0.1976313142412142</v>
+        <v>0.0723476441349428</v>
       </c>
       <c r="Q6">
-        <v>466.8112897544284</v>
+        <v>480.6291206655602</v>
       </c>
       <c r="R6">
-        <v>466.8112897544284</v>
+        <v>4325.662085990041</v>
       </c>
       <c r="S6">
-        <v>0.1619849540183822</v>
+        <v>0.05921787923521304</v>
       </c>
       <c r="T6">
-        <v>0.1619849540183822</v>
+        <v>0.05921787923521305</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.5922617627955</v>
+        <v>19.74619233333334</v>
       </c>
       <c r="H7">
-        <v>19.5922617627955</v>
+        <v>59.23857700000001</v>
       </c>
       <c r="I7">
-        <v>0.8196320236006495</v>
+        <v>0.8185184181638298</v>
       </c>
       <c r="J7">
-        <v>0.8196320236006495</v>
+        <v>0.8185184181638298</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.8211477070986</v>
+        <v>14.277234</v>
       </c>
       <c r="N7">
-        <v>13.8211477070986</v>
+        <v>42.831702</v>
       </c>
       <c r="O7">
-        <v>0.1146418249172748</v>
+        <v>0.04243671455578994</v>
       </c>
       <c r="P7">
-        <v>0.1146418249172748</v>
+        <v>0.04243671455578994</v>
       </c>
       <c r="Q7">
-        <v>270.7875437397366</v>
+        <v>281.9210085520061</v>
       </c>
       <c r="R7">
-        <v>270.7875437397366</v>
+        <v>2537.289076968054</v>
       </c>
       <c r="S7">
-        <v>0.09396411094621729</v>
+        <v>0.03473523247027515</v>
       </c>
       <c r="T7">
-        <v>0.09396411094621729</v>
+        <v>0.03473523247027515</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.6281007591876</v>
+        <v>3.630999</v>
       </c>
       <c r="H8">
-        <v>3.6281007591876</v>
+        <v>10.892997</v>
       </c>
       <c r="I8">
-        <v>0.1517796976726226</v>
+        <v>0.1505120332904577</v>
       </c>
       <c r="J8">
-        <v>0.1517796976726226</v>
+        <v>0.1505120332904577</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>82.91192619001551</v>
+        <v>297.8183156666666</v>
       </c>
       <c r="N8">
-        <v>82.91192619001551</v>
+        <v>893.4549469999999</v>
       </c>
       <c r="O8">
-        <v>0.687726860841511</v>
+        <v>0.8852156413092672</v>
       </c>
       <c r="P8">
-        <v>0.687726860841511</v>
+        <v>0.8852156413092673</v>
       </c>
       <c r="Q8">
-        <v>300.8128223557015</v>
+        <v>1081.378006367351</v>
       </c>
       <c r="R8">
-        <v>300.8128223557015</v>
+        <v>9732.402057306157</v>
       </c>
       <c r="S8">
-        <v>0.1043829750198664</v>
+        <v>0.1332356060739743</v>
       </c>
       <c r="T8">
-        <v>0.1043829750198664</v>
+        <v>0.1332356060739743</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.6281007591876</v>
+        <v>3.630999</v>
       </c>
       <c r="H9">
-        <v>3.6281007591876</v>
+        <v>10.892997</v>
       </c>
       <c r="I9">
-        <v>0.1517796976726226</v>
+        <v>0.1505120332904577</v>
       </c>
       <c r="J9">
-        <v>0.1517796976726226</v>
+        <v>0.1505120332904577</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>23.8263093565274</v>
+        <v>24.34034433333333</v>
       </c>
       <c r="N9">
-        <v>23.8263093565274</v>
+        <v>73.021033</v>
       </c>
       <c r="O9">
-        <v>0.1976313142412142</v>
+        <v>0.07234764413494278</v>
       </c>
       <c r="P9">
-        <v>0.1976313142412142</v>
+        <v>0.0723476441349428</v>
       </c>
       <c r="Q9">
-        <v>86.44425106505568</v>
+        <v>88.37976593398899</v>
       </c>
       <c r="R9">
-        <v>86.44425106505568</v>
+        <v>795.4178934059009</v>
       </c>
       <c r="S9">
-        <v>0.02999642112617457</v>
+        <v>0.01088919102252469</v>
       </c>
       <c r="T9">
-        <v>0.02999642112617457</v>
+        <v>0.0108891910225247</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.6281007591876</v>
+        <v>3.630999</v>
       </c>
       <c r="H10">
-        <v>3.6281007591876</v>
+        <v>10.892997</v>
       </c>
       <c r="I10">
-        <v>0.1517796976726226</v>
+        <v>0.1505120332904577</v>
       </c>
       <c r="J10">
-        <v>0.1517796976726226</v>
+        <v>0.1505120332904577</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.8211477070986</v>
+        <v>14.277234</v>
       </c>
       <c r="N10">
-        <v>13.8211477070986</v>
+        <v>42.831702</v>
       </c>
       <c r="O10">
-        <v>0.1146418249172748</v>
+        <v>0.04243671455578994</v>
       </c>
       <c r="P10">
-        <v>0.1146418249172748</v>
+        <v>0.04243671455578994</v>
       </c>
       <c r="Q10">
-        <v>50.14451648896839</v>
+        <v>51.84062237676599</v>
       </c>
       <c r="R10">
-        <v>50.14451648896839</v>
+        <v>466.565601390894</v>
       </c>
       <c r="S10">
-        <v>0.01740030152658171</v>
+        <v>0.006387236193958704</v>
       </c>
       <c r="T10">
-        <v>0.01740030152658171</v>
+        <v>0.006387236193958707</v>
       </c>
     </row>
   </sheetData>
